--- a/trunk/technical/requirement/vehicle-service/demo/vehicle-service-demo_v1.1.xlsx
+++ b/trunk/technical/requirement/vehicle-service/demo/vehicle-service-demo_v1.1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>id</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>vehicle_no</t>
-  </si>
-  <si>
-    <t>spl_node_vst_vehical_service_master_tbl</t>
   </si>
   <si>
     <t>vhl_mst_id</t>
@@ -438,13 +435,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -456,14 +458,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,10 +779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I33"/>
+  <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -800,14 +797,14 @@
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
@@ -823,10 +820,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="E4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -844,15 +841,15 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
-      <c r="C6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="17"/>
+      <c r="C6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
@@ -867,11 +864,11 @@
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
@@ -879,13 +876,13 @@
     <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
@@ -893,13 +890,13 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="20"/>
+      <c r="E10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="14"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
@@ -907,14 +904,14 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>82</v>
+      <c r="F11" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -923,13 +920,13 @@
     <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="21"/>
+      <c r="D12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="15"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
@@ -937,13 +934,13 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
@@ -951,9 +948,9 @@
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="6"/>
@@ -971,11 +968,11 @@
     <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
+      <c r="D16" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
@@ -983,13 +980,13 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
@@ -997,13 +994,13 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
@@ -1011,13 +1008,13 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
@@ -1025,14 +1022,14 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1041,13 +1038,13 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
@@ -1055,13 +1052,13 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="20"/>
+      <c r="D22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="14"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
@@ -1069,13 +1066,13 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="20"/>
+      <c r="D23" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="14"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
@@ -1083,13 +1080,13 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="6"/>
@@ -1097,9 +1094,9 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="6"/>
@@ -1123,33 +1120,6 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="9"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="D31" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="F32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" t="s">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
